--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8E86E20C-55A5-974C-896E-D366D8E0DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70BF12E2-93D2-E344-9493-74D66FEAF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-21100" windowWidth="28300" windowHeight="21100"/>
+    <workbookView xWindow="480" yWindow="-21100" windowWidth="28320" windowHeight="20880"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Rust" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="500">
   <si>
     <t>Issue</t>
   </si>
@@ -1358,6 +1358,281 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Topology::start動的セットアップを使用する
+[Class]機能の改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンクの建物を未来にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ディスク バッファリングの再利用テストを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チャネルのドロップをより適切に処理する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのソースを lazy でラップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Syslog TCP と生の TCP ソースを統合する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫したエンコーディング
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]同時実行の問題を解決する
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UDP テストの信頼性を高める
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]他の多くを引き込む機能ゲーティングの依存関係を検討する
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]S3 パーティショニングの統合テスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードベース全体にドキュメント コメントを追加する
+[Class]ドキュメントコメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのシンク バッチがシリアル化されたバイト数でカウントされるようにする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]futures::sync::mpsc よりも tokio_sink::mpsc を使用する。
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベンチマークのクリーンアップ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トポロジ テストでリソースの競合を減らす
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]smallvec の脆弱なバージョン
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]再試行戦略を再考する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サンプル構成を検証する
+[Class]検証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース時にすべてのターゲットですべての機能をサポート
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定な s3 テストを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トポロジの変更をテストするためのより良い戦略
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rate_limitロギング オプションの名前をrate_limit_secsに変更
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログ イベント データ モデルとネスト戦略に再アプローチする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロメテウスのテストを完了する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストtokio::runtime::Runtimeでの使用を置き換えるtest_util::runtime()
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]memoffset の依存関係をアップ
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソースを更新してudpnew を使用するUdpFramed
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kafka ソース統合テストの修正と無視解除
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベンチマークを更新して新しい基準を使用する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのコンパイル時間を改善する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トレースの依存関係を更新する
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]さまざまな TLS オプション セットを統一する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「test_sink_error stdout」がランダムに失敗する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]reqwestの使用法をhyperに置き換えます 
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio::runtime::Runtimeの使用法を独自のものに抽出する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンクのタワー リクエスト構成をリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]適切なトポロジ停止戦略を実装する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rusotoバージョンの更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]shipliftのフォークされたバージョンから移動
+[Class]プロジェクトのバージョンアップ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]elasticsearches をカバーするようにテストを更新する7.x
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio v0.2とstd::future::Futureをアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]明示的/暗黙的な構造化に関する残りの負債を整理する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストで使用されるタイムアウト値で相対時間単位を使用する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラッシュ処理を含むテストが CI で失敗する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]条件コンポーネントの概念を確認する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Impl Into&lt;...&gt; 変換を使用するように Event::insert_* を更新しました。
+[Class]ツールの更新，コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プラットフォーム固有のシグナル処理コードを から移動main.rs
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]localstack S3 を優先して minio を削除します
+[Class]不要なコードの削除</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2325,16 +2600,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2361,8 +2636,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -2372,8 +2650,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>446</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -2383,8 +2664,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>449</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -2394,8 +2678,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>446</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -2405,8 +2692,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -2416,8 +2706,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -2427,8 +2720,11 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>446</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -2438,8 +2734,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>455</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -2449,8 +2748,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>449</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -2460,8 +2762,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>446</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -2471,8 +2776,11 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>449</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -2482,19 +2790,25 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>460</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63">
       <c r="A14">
         <v>574</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>446</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -2504,8 +2818,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -2515,8 +2832,11 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>449</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -2526,8 +2846,11 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>449</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -2537,8 +2860,11 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>466</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -2548,8 +2874,11 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>446</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -2559,8 +2888,11 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>449</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -2570,8 +2902,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>446</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -2581,8 +2916,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>449</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -2592,8 +2930,11 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>449</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -2603,8 +2944,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>446</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -2614,8 +2958,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>446</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2625,8 +2972,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>449</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -2636,8 +2986,11 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>449</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -2647,8 +3000,11 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>446</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2658,8 +3014,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>466</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -2669,8 +3028,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>449</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2680,8 +3042,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>449</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -2691,8 +3056,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>449</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2702,8 +3070,11 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>446</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -2713,8 +3084,11 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>446</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -2724,8 +3098,11 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>449</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -2735,8 +3112,11 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>449</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2746,8 +3126,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>446</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2757,8 +3140,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>446</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2768,8 +3154,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>446</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2779,8 +3168,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>466</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2790,8 +3182,11 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>490</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2801,8 +3196,11 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>449</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2812,8 +3210,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>466</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2823,8 +3224,11 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>446</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2834,8 +3238,11 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>449</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2845,8 +3252,11 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2856,8 +3266,11 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2867,8 +3280,14 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>466</v>
+      </c>
+      <c r="D48" t="s">
+        <v>446</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2878,8 +3297,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>446</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2889,8 +3311,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70BF12E2-93D2-E344-9493-74D66FEAF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{75F6BDA8-6A0E-1A41-9B6F-D68D74EB0321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="-21100" windowWidth="28320" windowHeight="20880"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="555">
   <si>
     <t>Issue</t>
   </si>
@@ -1633,6 +1633,294 @@
   <si>
     <t>[Content]localstack S3 を優先して minio を削除します
 [Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テスト用に AWS 環境変数を設定する要件を削除
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのシンクがhyper-openssl代わりに使用することを確認しますhyper-tls
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]http クライアント ファクトリ メソッドを追加SinkContext
+[Class]メソッドの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windows のビルド手順が失敗する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイル ソースのクリーンアップ チェックポイント
+[Class]ファイルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windows 用のドキュメント作成用ベクター
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stableWindows で Rust コンパイラを使用する
+[Class]ツールの利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LogEvent のクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベクトルのコンパイル (チェック) 時間を改善する
+[Class]コンパイルの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]parses_sink_full_es_aws機能フラグの後ろにテストを置くか、使用しますlocalstack
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ValueKind の f64
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rdkafkaを現在の安定バージョン 0.23.1 にアップグレードしてください
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスクとして変換
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]src/sinks/awsモジュールの下にすべての「aws」シンクをネストする可能性があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]journalctl の潜在的なクラッシュを処理する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AWSリージョンとエンドポイント設定は、enumとして扱った方がよいかもしれません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI で kubernetes テストを再度有効にする
+[Class]テストの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content][RUSTSEC-2020-0002]: prost 0.6.1 にアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]builder-*unknown-linux-musl* Docker イメージを使用する際に rust-toolchain を削除する必要性を回避する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]http ベースのシンクを移行して使用するHttpSink
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンクのバッチ処理に関する複雑さを軽減する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio 0.2 でのファイル記述子の使用状況を調べる
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio 0.2 が並行性のボトルネックを修正することを確認する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>tokio 0.2にするための調査</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">チョウサ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rust-toolchainプロジェクトのルートに戻る
+[Class]ファイルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイルのチェックポイント戦略を再検討する
+[Class]プロジェクトの方針</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバル スキーマをビルド引数として伝播できるようにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>微妙</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ビミョウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの分離を容易にする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいTransformContextタイプを追加
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベンチマークは失敗していますSchema was not initialized
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AtomSのメリットとデメリット
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トポロジ ユニット (ソース/変換/シンク) を構成するために使用するパターンを改善する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TLS サポートを次の場所に移動tokio_openssl
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンポーネント間の相互依存を避ける
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソースにはシンクや変換と同様にコンテキスト パラメーターが必要です
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未使用の依存関係をカット
+[Class]依存関係の改善</t>
+    <rPh sb="29" eb="33">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TLS 実装の再編成と一元化
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]struct EncodingConfigアクセサの混乱
+[Class]コードの改善，セキュリティの問題</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio-compat: sinks::statsd::test::test_send_to_statsd が追跡に失敗する問題
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パーティションのバッチ処理を許可するHttpSink
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]test_max_sizeテストが失敗しています
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]0.3hyperのアップグレードfutures
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]futures0.3によって更新がブロックされているすべての依存関係のリストを作成します
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]潜在的な新しいシンク特性の設計
+[Class]仕様の変更</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シヨウノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メモリ内の公開鍵/秘密鍵を使用して TLS を構築できるようにする
+[Class]セキュリティの問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログ再帰検出機能
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヘルスチェックは同じ http クライアントを使用する必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LogEventの高速アクセサ メソッドを設計する
+[Class]仕様の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]内部 rusoto 資格情報プロバイダーを実装する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GCP サービスは構成済みの DNS リゾルバーを使用しません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト Makefile をクリーンアップし、Github Actions CI ワークフローに合わせます
+[Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2600,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3325,19 +3613,25 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="63">
       <c r="A52">
         <v>1402</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>446</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -3347,8 +3641,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>446</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -3358,8 +3655,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>504</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -3369,8 +3669,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>446</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -3380,8 +3683,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>460</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -3391,8 +3697,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>466</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -3402,8 +3711,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>446</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -3413,19 +3725,25 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>504</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="42">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="63">
       <c r="A60">
         <v>1527</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>449</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -3435,8 +3753,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>446</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -3446,8 +3767,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>466</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -3457,19 +3781,25 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>446</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="42">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="63">
       <c r="A64">
         <v>1603</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>446</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -3479,19 +3809,25 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>446</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="42">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="63">
       <c r="A66">
         <v>1628</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>446</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -3501,8 +3837,11 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>449</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -3512,19 +3851,25 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>466</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="42">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="63">
       <c r="A69">
         <v>1656</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>504</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -3534,8 +3879,11 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>446</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>444</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -3545,8 +3893,11 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>446</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -3556,8 +3907,14 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>466</v>
+      </c>
+      <c r="E72" t="s">
+        <v>524</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3567,8 +3924,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>446</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3578,8 +3938,11 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>446</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>444</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -3589,8 +3952,11 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>490</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3600,8 +3966,14 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>449</v>
+      </c>
+      <c r="E76" t="s">
+        <v>528</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3611,8 +3983,11 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>449</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>444</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3622,8 +3997,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>446</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3633,8 +4011,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>449</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>444</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3644,19 +4025,25 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>446</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="42">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="63">
       <c r="A81">
         <v>1895</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>446</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3666,8 +4053,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>446</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>444</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3677,8 +4067,11 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>446</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3688,8 +4081,11 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>446</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3699,8 +4095,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>446</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>444</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3710,8 +4109,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>446</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3721,19 +4123,28 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>446</v>
+      </c>
+      <c r="D87" t="s">
+        <v>540</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="42">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="63">
       <c r="A88">
         <v>2016</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>449</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>444</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3743,8 +4154,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>446</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>444</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3754,8 +4168,11 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>449</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>444</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3765,19 +4182,25 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>466</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="42">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="63">
       <c r="A92">
         <v>2118</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>466</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>444</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3787,8 +4210,14 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>546</v>
+      </c>
+      <c r="D93" t="s">
+        <v>446</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>444</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3798,8 +4227,11 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>540</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>444</v>
+        <v>548</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -3809,8 +4241,11 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>446</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>444</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -3820,8 +4255,11 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>446</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -3831,8 +4269,11 @@
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>546</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>444</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -3842,8 +4283,11 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>446</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>444</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -3853,19 +4297,25 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>446</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="42">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="63">
       <c r="A100">
         <v>2368</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>449</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>444</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{75F6BDA8-6A0E-1A41-9B6F-D68D74EB0321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6E844-9ED8-7D44-A383-DD369A431357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-21100" windowWidth="28320" windowHeight="20880"/>
+    <workbookView xWindow="480" yWindow="-21100" windowWidth="28320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Rust" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="609">
   <si>
     <t>Issue</t>
   </si>
@@ -1923,11 +1923,292 @@
 [Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>[Content]pending_acksシンクでの手直し 
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]雑用（操作）：より良い診断check-fmt
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Dockerpackage-*構成サービスはbuilder-*Dockerfile を必要としません
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]/scripts ディレクトリを /bin に移動し、/scripts ディレクトリをクリーンアップします
+[Class]ディレクトリの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]適切な TLS テストを実装する
+[Class]テストの実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]trust-dnsにアップグレード0.20
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストリーミング ベースのシンクをアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タワーにアップグレード0.4
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]より良い開発/テスト フロー管理
+[Class]ツールの導入</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト ハーネスのトリガー メカニズムを再検討する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SinkConfig::build を非同期にする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンク バッチの再設計
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>よく分からない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]emit!そのコードの内部イベントをアサートする機能を追加します
+[Class]テストの改善</t>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Value::Bytesに名前を変更Value::String
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]特にJSONをLogEventに、またはLogEventから変換する、LogEventのUXの改良を追加しました
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]型PathIterを作るためにリファクタリングするvector::Event::Lookup
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LogEvent値を使用して APIを改善しますInto&lt;Lookup&gt;
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エントリ スタイル API を LogEvent に追加する
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content](ルックアップ、値) を生成する関数Event::iterを提供します。Event::iter_mut
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TransformConfig::build を非同期にする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SourceConfig::build を非同期にする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RouterSink 型を列挙型に移行する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チャネルの代わりにソースに Push トレイトを導入する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>内容はよく分からない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ナイヨウハヨクワカラナイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成の読み込み、解析、チェック、ステージングされたコンパイラへのビルドを整理する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]compat を使用する代わりに、StreamingSink を新しいシンク バリアントに移行する
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サービス シンク バリアントを導入する
+[Class]ツールの利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio 0.1 への依存を削除
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]shipliftと置き換えますbollard
+[Class]機能の置き換え，ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pulsarシンクの依存関係をアップグレードする
+[Class]依存関係の改善，ツールへの対応</t>
+    <rPh sb="41" eb="45">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アップグレードtokio-codec
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なテストを取り除く
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]同期中の非同期コードを削除 Sink::build
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ビルドに関係するコードの可能性もある</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バッチ バッファ サイズの潜在的なバグ
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロメテウスがマイナーな技術的負債を調達
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンポーネントのビルド方法を統一する
+[Class]ビルドの改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メトリクス内部のコード コメントを追加する
+[Class]コメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio::test などのテスト用に独自の属性マクロを追加
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio01-test クレートを削除
+[Class]不要なテストの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]可能性のある BytesMut の使用 代わりに Bytes in Event
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio-compat を削除する
+[Class]ツールの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アップグレードタワー
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一部の make スクリプトに依存関係チェックを追加する
+[Class]チェックの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]journald ソースで生成されたプロセスを更新する
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動並行性テストの一貫性を高める
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]名前付きリマップ関数をパーサーから持ち上げる
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]借金 - 東京0.1からの移行
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]負債 - シンクを単純化する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]債務 - リリース プロセスの改善
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データ モデルのエルゴノミクスを改善する
+[Class]ツールの利用，パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]負債 - アーキテクチャを改善する
+[Class]コードの改善，パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -2885,11 +3166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4325,8 +4606,11 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>446</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -4336,8 +4620,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>446</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>444</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -4347,19 +4634,25 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>504</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="42">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="63">
       <c r="A104">
         <v>2483</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>446</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>444</v>
+        <v>558</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -4369,8 +4662,11 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>449</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>444</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -4380,8 +4676,11 @@
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>466</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>444</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -4391,8 +4690,11 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>466</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>444</v>
+        <v>561</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -4402,8 +4704,11 @@
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>466</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>444</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -4413,8 +4718,11 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>466</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>444</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -4424,8 +4732,11 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>449</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -4435,8 +4746,11 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>504</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>444</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -4446,8 +4760,14 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>446</v>
+      </c>
+      <c r="E112" t="s">
+        <v>567</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>444</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -4457,8 +4777,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>449</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>444</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -4468,19 +4791,28 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>446</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="42">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="63">
       <c r="A115">
         <v>2841</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>446</v>
+      </c>
+      <c r="E115" t="s">
+        <v>570</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>444</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -4490,8 +4822,11 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>446</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>444</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -4501,8 +4836,11 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>446</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -4512,19 +4850,28 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" t="s">
+        <v>466</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="42">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="63">
       <c r="A119">
         <v>2845</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>446</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>444</v>
+        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -4534,8 +4881,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>504</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>444</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -4545,8 +4895,11 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>504</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>444</v>
+        <v>577</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -4556,8 +4909,11 @@
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>446</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>444</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -4567,30 +4923,42 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>446</v>
+      </c>
+      <c r="E123" t="s">
+        <v>580</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="42">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="63">
       <c r="A124">
         <v>2936</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>504</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="42">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="63">
       <c r="A125">
         <v>2937</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>446</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>444</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -4600,8 +4968,11 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>466</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>444</v>
+        <v>583</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -4611,8 +4982,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>466</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>444</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -4622,8 +4996,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>466</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>444</v>
+        <v>585</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -4633,8 +5010,11 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>466</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -4644,8 +5024,11 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>466</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>444</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -4655,8 +5038,11 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>449</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>444</v>
+        <v>588</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -4666,8 +5052,14 @@
       <c r="B132" t="s">
         <v>132</v>
       </c>
+      <c r="C132" t="s">
+        <v>446</v>
+      </c>
+      <c r="E132" t="s">
+        <v>590</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>444</v>
+        <v>589</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -4677,8 +5069,11 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
+      <c r="C133" t="s">
+        <v>446</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>444</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -4688,8 +5083,11 @@
       <c r="B134" t="s">
         <v>134</v>
       </c>
+      <c r="C134" t="s">
+        <v>446</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>444</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -4699,8 +5097,11 @@
       <c r="B135" t="s">
         <v>135</v>
       </c>
+      <c r="C135" t="s">
+        <v>504</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>444</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4710,8 +5111,11 @@
       <c r="B136" t="s">
         <v>136</v>
       </c>
+      <c r="C136" t="s">
+        <v>460</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>444</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4721,8 +5125,11 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
+      <c r="C137" t="s">
+        <v>449</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>444</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4732,8 +5139,11 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
+      <c r="C138" t="s">
+        <v>449</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>444</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4743,8 +5153,11 @@
       <c r="B139" t="s">
         <v>139</v>
       </c>
+      <c r="C139" t="s">
+        <v>455</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>444</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4754,8 +5167,14 @@
       <c r="B140" t="s">
         <v>140</v>
       </c>
+      <c r="C140" t="s">
+        <v>466</v>
+      </c>
+      <c r="D140" t="s">
+        <v>449</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>444</v>
+        <v>598</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4765,8 +5184,11 @@
       <c r="B141" t="s">
         <v>141</v>
       </c>
+      <c r="C141" t="s">
+        <v>466</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4776,8 +5198,11 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
+      <c r="C142" t="s">
+        <v>449</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>444</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4787,8 +5212,11 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
+      <c r="C143" t="s">
+        <v>466</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>444</v>
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4798,8 +5226,11 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
+      <c r="C144" t="s">
+        <v>449</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>444</v>
+        <v>602</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4809,8 +5240,11 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
+      <c r="C145" t="s">
+        <v>446</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>444</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -4820,8 +5254,11 @@
       <c r="B146" t="s">
         <v>146</v>
       </c>
+      <c r="C146" t="s">
+        <v>466</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>444</v>
+        <v>604</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4831,8 +5268,11 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
+      <c r="C147" t="s">
+        <v>446</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>444</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -4842,8 +5282,11 @@
       <c r="B148" t="s">
         <v>148</v>
       </c>
+      <c r="C148" t="s">
+        <v>449</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>444</v>
+        <v>606</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -4853,8 +5296,14 @@
       <c r="B149" t="s">
         <v>149</v>
       </c>
+      <c r="C149" t="s">
+        <v>466</v>
+      </c>
+      <c r="D149" t="s">
+        <v>455</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>444</v>
+        <v>607</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4864,8 +5313,14 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
+      <c r="C150" t="s">
+        <v>446</v>
+      </c>
+      <c r="D150" t="s">
+        <v>455</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6E844-9ED8-7D44-A383-DD369A431357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0DFA6-2E3D-1048-A086-B94A34D23986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-21100" windowWidth="28320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="-21100" windowWidth="28320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Rust" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="659">
   <si>
     <t>Issue</t>
   </si>
@@ -2202,6 +2202,268 @@
   <si>
     <t>[Content]負債 - アーキテクチャを改善する
 [Class]コードの改善，パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]負債 - データ モデルの更新 - リファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]借金 - 開発環境の改善
+[Class]開発環境の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リマップ機能を独自のモジュール/ファイルに分離する
+[Class]ファイルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サービス シンク アダプターを StreamSink に変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sources.journald.remap_priorityVRL を支持する を削除します
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイル ソース チェックポイントの永続性を独自のタスクに移動
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイル ソースの開始点の動作を修正する
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]remap-lang: オブジェクトと変数の扱いを統一
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヒストグラム/要約メトリック データ モデルの再加工
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベクトルには 6 つのmap!マクロ定義があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VRL 関数からデフォルト引数を削除
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Vector のバイナリ サイズを小さくする方法を調査する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TaskTransform を futures 0.3 ストリームにアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fanout を先物 0.3 および tokio チャンネルにアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DiskBuffer を futures 0.3 にアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BufferInputCloner を tokio チャンネルにアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tokio::sync へのトポロジ中止シグナルを更新
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]型システムを使用して、間違いのない代入をネストできないようにする
+[Class]機能の改善</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンク内のメトリクスのバッファリングを作り直す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メトリクス データをキー + 値に分割する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BatchSink の単純化: PartitionBatchSink を内部として使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VRL パーサーを Pest から Nom に切り替える
+[Class]ツールの切り替え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Lua v2 との間で送受信されるメトリックの互換性ラッパーの影響を調査する
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EventStreamsplunk_hec ソースを futures 0.3 にアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トポロジーを futures 0.3 にアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メトリクス更新インターフェイスがサイレント モードで失敗する場合がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バッチ バッファの作成を分割するtrait Batch
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Displayイベントを発行するときに一貫して使用する
+[Class]ドキュメントの修正</t>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WASM parse_json ベンチマークが他の parse_json 実装と一致しない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VRL 標準ライブラリの単体テストを移行して復活させる
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Tokio 1.0 にアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]type_defに対するテストで VRL 関数の結果を確認する
+[Class]テストの改善</t>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]decodingソースの共通構成を実装する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]datadog_metricsメタデータの複製を避けるためにシンクを作り直す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンクでのメタデータ処理を統一するencode_event 
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでタイムゾーンの問題を解決する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンポーネントの仕様の問題についてソースをスキャンするスクリプトを作成する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンパイルエラーlib/vector-core/buffers/examples/soak.rs
+[Class]コンパイルエラーの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソースを監査して、コンポーネントの仕様に準拠していることを確認します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンポーネント仕様への準拠を確認するための監査シンク
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Pipelineのインライン変換は使用されません 
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]イベントの明確化BytesReceivedとソースの正しい動作
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]async-std と Isahc に切り替え
+[Class]ツールの切り替え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kf-protocol を別のリポジトリに移動
+[Class]リポジトリの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トレースのサポートを追加 
+[Class]サポートの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]utilsFluvio リポジトリからクレートを取り除く
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fluviokubernetes に Fluvio をインストールするための新しい名前空間として使用します
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]flv-protocol からfluvio-protocol に移行
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PartitionStatus マッピング エラー
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パーティションの Kubernetes オブジェクトの競合を処理する
+[Class]コードの修正</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3169,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5330,8 +5592,11 @@
       <c r="B151" t="s">
         <v>151</v>
       </c>
+      <c r="C151" t="s">
+        <v>446</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>444</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -5341,8 +5606,11 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
+      <c r="C152" t="s">
+        <v>490</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>444</v>
+        <v>610</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -5352,8 +5620,11 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
+      <c r="C153" t="s">
+        <v>446</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>444</v>
+        <v>611</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -5363,8 +5634,11 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
+      <c r="C154" t="s">
+        <v>446</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>444</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -5374,8 +5648,11 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
+      <c r="C155" t="s">
+        <v>466</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>444</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -5385,8 +5662,11 @@
       <c r="B156" t="s">
         <v>156</v>
       </c>
+      <c r="C156" t="s">
+        <v>455</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>444</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -5396,8 +5676,11 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>446</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>444</v>
+        <v>615</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -5407,8 +5690,11 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>446</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>444</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -5418,8 +5704,11 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>446</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>444</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -5429,8 +5718,11 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>446</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>444</v>
+        <v>618</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -5440,8 +5732,11 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>446</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>444</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -5451,8 +5746,11 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>446</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>444</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -5462,8 +5760,11 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>466</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>444</v>
+        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -5473,8 +5774,11 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>466</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>444</v>
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -5484,8 +5788,11 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>466</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>444</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -5495,8 +5802,11 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>466</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>444</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -5506,8 +5816,11 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>466</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>444</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -5517,8 +5830,11 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>446</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>444</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -5528,8 +5844,11 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>446</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>444</v>
+        <v>627</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -5539,8 +5858,11 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>446</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>444</v>
+        <v>628</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -5550,8 +5872,11 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>446</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>444</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -5561,19 +5886,25 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>466</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="42">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="63">
       <c r="A173">
         <v>6191</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>455</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>444</v>
+        <v>631</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -5583,8 +5914,11 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>466</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>444</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -5594,19 +5928,25 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>466</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="42">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="63">
       <c r="A176">
         <v>6329</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>446</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>444</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -5616,8 +5956,11 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>446</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>444</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -5627,8 +5970,11 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>460</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>444</v>
+        <v>636</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -5638,8 +5984,11 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>446</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>444</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -5649,8 +5998,11 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>449</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>444</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -5660,8 +6012,11 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>466</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>444</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -5671,8 +6026,11 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>449</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>444</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -5682,8 +6040,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>446</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>444</v>
+        <v>641</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -5693,8 +6054,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>446</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>444</v>
+        <v>642</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -5704,8 +6068,11 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>446</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>444</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -5715,19 +6082,25 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>449</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="42">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="63">
       <c r="A187">
         <v>8969</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>446</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>444</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5737,19 +6110,25 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>504</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="42">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="63">
       <c r="A189">
         <v>9687</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>446</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>444</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -5759,8 +6138,11 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>446</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>444</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5770,8 +6152,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>446</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>444</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5781,8 +6166,11 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>446</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>444</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -5792,8 +6180,11 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>466</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5803,8 +6194,14 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>446</v>
+      </c>
+      <c r="D194" t="s">
+        <v>490</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>444</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -5814,8 +6211,11 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>446</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>444</v>
+        <v>653</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -5825,19 +6225,28 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>446</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="42">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="63">
       <c r="A197">
         <v>259</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>446</v>
+      </c>
+      <c r="D197" t="s">
+        <v>466</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>444</v>
+        <v>655</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -5847,8 +6256,11 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>466</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>444</v>
+        <v>656</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -5858,8 +6270,11 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>446</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>444</v>
+        <v>657</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5869,8 +6284,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>446</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>444</v>
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0DFA6-2E3D-1048-A086-B94A34D23986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38395557-4FC2-1844-B392-643F471A5B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="-21100" windowWidth="28320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="711">
   <si>
     <t>Issue</t>
   </si>
@@ -2464,6 +2464,282 @@
   <si>
     <t>[Content]パーティションの Kubernetes オブジェクトの競合を処理する
 [Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]既存のすべてのクラスター ロジックを CLI からクラスター モジュールに移動します
+[Class]モジュールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SPU が SC から不要なレプリカ更新イベントを受信して​​いる
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]makefile を cargo-make ビルド構成に置き換える
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI: 文書化された API を使用するように消費をリファクタリングします
+[Class]APIの移行</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]追跡: TLS のサポートを追加
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI は未使用の依存関係をチェックする必要があります 
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestRunner リファクタリング
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI とローカル クラスタにネイティブ TLS を使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ワンタイム シリアル ソケットを使用するようにクライアント API を変換する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マージspuとcustom-spu用語
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トラッキング: コマンド拡張メカニズム
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トピック名に英数字以外の文字が含まれていると CLI がハングする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードベース全体で「SPU」と「カスタム SPU」の用語を統合
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Pod Config を使用して K8 内で実行している場合、クラスター インストーラーは K8 クラスター IP を使用する必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sccache を追加してリリース ワークフローを改善する
+[Class]リリースワークフローの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VERSION を解析して、github リリースがプレリリースかどうかを判断します
+[Class]リリースの設定</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリースにはエンドツーエンドのテストが必要
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stream-dispatcher: スペックが存在する場合、create_spec は更新を待機しません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluvio クライアント: トピックの作成は、トピックが完全にプロビジョニングされるまで待機する必要があります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fluvio cluster deleteFluvio クラスターが実行されていない場合に失敗する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluvio-cluster クレートで適切な構成/ビルダーの分離を作成する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラスター インストーラーはインストール状態を CRD に保存する必要があります
+[Class]インストールの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluvio クライアントが最初の同期後にキャッシュ メタデータを更新しない
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI: fluvio profile viewTLS 証明書を画面に出力すべきではありません
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なレプリカの変更を SPU に送信する SC
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インストーラーの SC 検出により、インストーラーのプロセスがハングすることがある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluvio-test - プロデューサとコンシューマをプロセスに生成します
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Cluster Install で LB アドレスの代わりに cluster_ip を使用できるようにする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fluvio-stream-modelの default_convert_from_k8 の境界を修正
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース CI の一部として変更ログを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタfluvio-clusterクレート 
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stream-model: sync_all古いデータでストアを更新します
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最小 Fluvio バージョンをクライアントに追加する
+[Class]機能の改善</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自身がfluvioプロジェクト</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンシューマ フェッチ リクエストでは、数値ではなく論理オフセットを使用する必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラスタ アップグレード API のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Storage ConfigOption のビルダー 
+[Class]コードの改善，ビルドの改善</t>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rust のイディオムに従うように ErrorCode を更新
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラーを均一に表示するための戦略を作成する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロデューサー エラーを正しく処理する 
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最新のナイトリー リリースを生成する
+[Class]リリースの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]技術的負債: パーティションに関する統計を保存するために CRD を使用するのをやめる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SpgOperator を変換して Controller パターンを使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FluvioSocket の dup を使用するように分割から移行する
+[Class]機能の移行</t>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]依存関係のアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]簡素化された Fluvio プロトコル コーデック
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストのベンチマークを追加する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト ランナー: トピック作成を冪等にする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト ランナー: 統合テストを動的に収集する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI: Mac 単体テストの失敗
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SPU stream_fetch での不安定なテスト
+[Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3431,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6291,15 +6567,18 @@
         <v>658</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="42">
+    <row r="201" spans="1:6" ht="63">
       <c r="A201">
         <v>335</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
       </c>
+      <c r="C201" t="s">
+        <v>446</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>444</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -6309,8 +6588,11 @@
       <c r="B202" t="s">
         <v>202</v>
       </c>
+      <c r="C202" t="s">
+        <v>446</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>444</v>
+        <v>660</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -6320,8 +6602,11 @@
       <c r="B203" t="s">
         <v>203</v>
       </c>
+      <c r="C203" t="s">
+        <v>504</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>444</v>
+        <v>661</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -6331,8 +6616,11 @@
       <c r="B204" t="s">
         <v>204</v>
       </c>
+      <c r="C204" t="s">
+        <v>466</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>444</v>
+        <v>662</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -6342,8 +6630,11 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
+      <c r="C205" t="s">
+        <v>446</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>444</v>
+        <v>663</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -6353,8 +6644,11 @@
       <c r="B206" t="s">
         <v>206</v>
       </c>
+      <c r="C206" t="s">
+        <v>449</v>
+      </c>
       <c r="F206" s="2" t="s">
-        <v>444</v>
+        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -6364,8 +6658,11 @@
       <c r="B207" t="s">
         <v>207</v>
       </c>
+      <c r="C207" t="s">
+        <v>449</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>444</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -6375,19 +6672,25 @@
       <c r="B208" t="s">
         <v>208</v>
       </c>
+      <c r="C208" t="s">
+        <v>446</v>
+      </c>
       <c r="F208" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="42">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="63">
       <c r="A209">
         <v>453</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
       </c>
+      <c r="C209" t="s">
+        <v>446</v>
+      </c>
       <c r="F209" s="2" t="s">
-        <v>444</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -6397,8 +6700,11 @@
       <c r="B210" t="s">
         <v>210</v>
       </c>
+      <c r="C210" t="s">
+        <v>460</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>444</v>
+        <v>668</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -6408,8 +6714,11 @@
       <c r="B211" t="s">
         <v>211</v>
       </c>
+      <c r="C211" t="s">
+        <v>446</v>
+      </c>
       <c r="F211" s="2" t="s">
-        <v>444</v>
+        <v>669</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -6419,8 +6728,11 @@
       <c r="B212" t="s">
         <v>212</v>
       </c>
+      <c r="C212" t="s">
+        <v>446</v>
+      </c>
       <c r="F212" s="2" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -6430,19 +6742,25 @@
       <c r="B213" t="s">
         <v>213</v>
       </c>
+      <c r="C213" t="s">
+        <v>446</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="42">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="63">
       <c r="A214">
         <v>558</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
       </c>
+      <c r="C214" t="s">
+        <v>446</v>
+      </c>
       <c r="F214" s="2" t="s">
-        <v>444</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -6452,19 +6770,25 @@
       <c r="B215" t="s">
         <v>215</v>
       </c>
+      <c r="C215" t="s">
+        <v>490</v>
+      </c>
       <c r="F215" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="42">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="63">
       <c r="A216">
         <v>568</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
       </c>
+      <c r="C216" t="s">
+        <v>490</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>444</v>
+        <v>674</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -6474,30 +6798,39 @@
       <c r="B217" t="s">
         <v>217</v>
       </c>
+      <c r="C217" t="s">
+        <v>449</v>
+      </c>
       <c r="F217" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="42">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="63">
       <c r="A218">
         <v>571</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
       </c>
+      <c r="C218" t="s">
+        <v>446</v>
+      </c>
       <c r="F218" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="42">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="63">
       <c r="A219">
         <v>574</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
       </c>
+      <c r="C219" t="s">
+        <v>446</v>
+      </c>
       <c r="F219" s="2" t="s">
-        <v>444</v>
+        <v>677</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -6507,8 +6840,11 @@
       <c r="B220" t="s">
         <v>220</v>
       </c>
+      <c r="C220" t="s">
+        <v>446</v>
+      </c>
       <c r="F220" s="2" t="s">
-        <v>444</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -6518,19 +6854,25 @@
       <c r="B221" t="s">
         <v>221</v>
       </c>
+      <c r="C221" t="s">
+        <v>446</v>
+      </c>
       <c r="F221" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="42">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="63">
       <c r="A222">
         <v>588</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
       </c>
+      <c r="C222" t="s">
+        <v>446</v>
+      </c>
       <c r="F222" s="2" t="s">
-        <v>444</v>
+        <v>680</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -6540,8 +6882,11 @@
       <c r="B223" t="s">
         <v>223</v>
       </c>
+      <c r="C223" t="s">
+        <v>446</v>
+      </c>
       <c r="F223" s="2" t="s">
-        <v>444</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -6551,8 +6896,11 @@
       <c r="B224" t="s">
         <v>224</v>
       </c>
+      <c r="C224" t="s">
+        <v>683</v>
+      </c>
       <c r="F224" s="2" t="s">
-        <v>444</v>
+        <v>682</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -6562,19 +6910,25 @@
       <c r="B225" t="s">
         <v>225</v>
       </c>
+      <c r="C225" t="s">
+        <v>446</v>
+      </c>
       <c r="F225" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="42">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="63">
       <c r="A226">
         <v>623</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
       </c>
+      <c r="C226" t="s">
+        <v>446</v>
+      </c>
       <c r="F226" s="2" t="s">
-        <v>444</v>
+        <v>685</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -6584,19 +6938,25 @@
       <c r="B227" t="s">
         <v>227</v>
       </c>
+      <c r="C227" t="s">
+        <v>449</v>
+      </c>
       <c r="F227" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="42">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="63">
       <c r="A228">
         <v>635</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
       </c>
+      <c r="C228" t="s">
+        <v>446</v>
+      </c>
       <c r="F228" s="2" t="s">
-        <v>444</v>
+        <v>687</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -6606,8 +6966,11 @@
       <c r="B229" t="s">
         <v>229</v>
       </c>
+      <c r="C229" t="s">
+        <v>446</v>
+      </c>
       <c r="F229" s="2" t="s">
-        <v>444</v>
+        <v>688</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -6617,8 +6980,11 @@
       <c r="B230" t="s">
         <v>230</v>
       </c>
+      <c r="C230" t="s">
+        <v>446</v>
+      </c>
       <c r="F230" s="2" t="s">
-        <v>444</v>
+        <v>689</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -6628,8 +6994,11 @@
       <c r="B231" t="s">
         <v>231</v>
       </c>
+      <c r="C231" t="s">
+        <v>446</v>
+      </c>
       <c r="F231" s="2" t="s">
-        <v>444</v>
+        <v>690</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -6639,8 +7008,11 @@
       <c r="B232" t="s">
         <v>232</v>
       </c>
+      <c r="C232" t="s">
+        <v>446</v>
+      </c>
       <c r="F232" s="2" t="s">
-        <v>444</v>
+        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -6650,19 +7022,28 @@
       <c r="B233" t="s">
         <v>233</v>
       </c>
+      <c r="C233" t="s">
+        <v>446</v>
+      </c>
+      <c r="E233" t="s">
+        <v>693</v>
+      </c>
       <c r="F233" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="42">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="63">
       <c r="A234">
         <v>776</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
       </c>
+      <c r="C234" t="s">
+        <v>446</v>
+      </c>
       <c r="F234" s="2" t="s">
-        <v>444</v>
+        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -6672,8 +7053,11 @@
       <c r="B235" t="s">
         <v>235</v>
       </c>
+      <c r="C235" t="s">
+        <v>446</v>
+      </c>
       <c r="F235" s="2" t="s">
-        <v>444</v>
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -6683,8 +7067,14 @@
       <c r="B236" t="s">
         <v>236</v>
       </c>
+      <c r="C236" t="s">
+        <v>446</v>
+      </c>
+      <c r="D236" t="s">
+        <v>504</v>
+      </c>
       <c r="F236" s="2" t="s">
-        <v>444</v>
+        <v>696</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -6694,8 +7084,11 @@
       <c r="B237" t="s">
         <v>237</v>
       </c>
+      <c r="C237" t="s">
+        <v>446</v>
+      </c>
       <c r="F237" s="2" t="s">
-        <v>444</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -6705,8 +7098,11 @@
       <c r="B238" t="s">
         <v>238</v>
       </c>
+      <c r="C238" t="s">
+        <v>446</v>
+      </c>
       <c r="F238" s="2" t="s">
-        <v>444</v>
+        <v>698</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -6716,8 +7112,11 @@
       <c r="B239" t="s">
         <v>239</v>
       </c>
+      <c r="C239" t="s">
+        <v>446</v>
+      </c>
       <c r="F239" s="2" t="s">
-        <v>444</v>
+        <v>699</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -6727,19 +7126,25 @@
       <c r="B240" t="s">
         <v>240</v>
       </c>
+      <c r="C240" t="s">
+        <v>490</v>
+      </c>
       <c r="F240" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="42">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="63">
       <c r="A241">
         <v>837</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
       </c>
+      <c r="C241" t="s">
+        <v>446</v>
+      </c>
       <c r="F241" s="2" t="s">
-        <v>444</v>
+        <v>701</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -6749,8 +7154,11 @@
       <c r="B242" t="s">
         <v>242</v>
       </c>
+      <c r="C242" t="s">
+        <v>446</v>
+      </c>
       <c r="F242" s="2" t="s">
-        <v>444</v>
+        <v>702</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -6760,8 +7168,11 @@
       <c r="B243" t="s">
         <v>243</v>
       </c>
+      <c r="C243" t="s">
+        <v>446</v>
+      </c>
       <c r="F243" s="2" t="s">
-        <v>444</v>
+        <v>703</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -6771,8 +7182,11 @@
       <c r="B244" t="s">
         <v>244</v>
       </c>
+      <c r="C244" t="s">
+        <v>466</v>
+      </c>
       <c r="F244" s="2" t="s">
-        <v>444</v>
+        <v>704</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -6782,8 +7196,11 @@
       <c r="B245" t="s">
         <v>245</v>
       </c>
+      <c r="C245" t="s">
+        <v>446</v>
+      </c>
       <c r="F245" s="2" t="s">
-        <v>444</v>
+        <v>705</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -6793,8 +7210,11 @@
       <c r="B246" t="s">
         <v>246</v>
       </c>
+      <c r="C246" t="s">
+        <v>449</v>
+      </c>
       <c r="F246" s="2" t="s">
-        <v>444</v>
+        <v>706</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -6804,8 +7224,11 @@
       <c r="B247" t="s">
         <v>247</v>
       </c>
+      <c r="C247" t="s">
+        <v>449</v>
+      </c>
       <c r="F247" s="2" t="s">
-        <v>444</v>
+        <v>707</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -6815,8 +7238,11 @@
       <c r="B248" t="s">
         <v>248</v>
       </c>
+      <c r="C248" t="s">
+        <v>449</v>
+      </c>
       <c r="F248" s="2" t="s">
-        <v>444</v>
+        <v>708</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -6826,8 +7252,11 @@
       <c r="B249" t="s">
         <v>249</v>
       </c>
+      <c r="C249" t="s">
+        <v>449</v>
+      </c>
       <c r="F249" s="2" t="s">
-        <v>444</v>
+        <v>709</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -6837,8 +7266,11 @@
       <c r="B250" t="s">
         <v>250</v>
       </c>
+      <c r="C250" t="s">
+        <v>449</v>
+      </c>
       <c r="F250" s="2" t="s">
-        <v>444</v>
+        <v>710</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38395557-4FC2-1844-B392-643F471A5B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0951392-FA36-A440-8621-09EE52F54783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="-21100" windowWidth="28320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="741">
   <si>
     <t>Issue</t>
   </si>
@@ -2740,6 +2740,165 @@
   <si>
     <t>[Content]SPU stream_fetch での不安定なテスト
 [Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FLUVIO_CMD=true が機能していないようです
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル クラスタの開始が開発モードで機能しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI の失敗: test_replication2_new_records_sync
+[Class]CIテストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PartitionConsumer::streamレコードがない間はブロックしないでください 
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パブリッシュ ステップを冪等にする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アーティファクトとコミュニティの更新を追跡するための図を作成し、リリースを伴う
+[Class]リリースの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動化を有効にして安定版ブランチにデプロイする
+[Class]デプロイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース - 変更ログの内容を含む GH リリースを更新するためのヘルパー自動化.
+[Class]リリース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インストール スクリプト - VERSION=stableCI のサポート
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SplitStream の削除/置換
+[Class]不要な機能の削除</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windows を CI に追加する
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SPU: レプリケーションのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース ワークフロー中に安定版ブランチを更新する
+[Class]リリース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dataplane-protocol の Record/DefaultRecord API を改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Bors を構成して Release on PR to stable を実行する
+[Class]リリース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]毎時/ストレステストを追加 (開始ロジックあり)
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マルチプレクサソケットに spawn_local を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]追跡の問題: パフォーマンス レポートの改善flv-test
+[Class]パフォーマンステストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluvio-test - ベンチマーク特性用のファイルベースのクラスター ワークロードを追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fluvio_protocol::deriveデータを運ぶ列挙型の修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能: WASM エンジン プール 
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI/CD からの現在のステータスの伝達を改善する
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロデューサーの寿命テストを CI に追加する
+[Class]CIテストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI での Kubernetes とローカル クラスタのテストの安定化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定性: CI でのビルドの失敗
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース: クレートの公開を自動化する
+[Class]リリース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストリーム コントローラー: 構成に基づいて SPU を動的にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SpuController の統合テストを追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PR CI でビルド バイナリを無効にする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バグ: K8 クラスターが起動しない
+[Class]バグの修正</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3707,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7280,8 +7439,11 @@
       <c r="B251" t="s">
         <v>251</v>
       </c>
+      <c r="C251" t="s">
+        <v>446</v>
+      </c>
       <c r="F251" s="2" t="s">
-        <v>444</v>
+        <v>711</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -7291,8 +7453,11 @@
       <c r="B252" t="s">
         <v>252</v>
       </c>
+      <c r="C252" t="s">
+        <v>446</v>
+      </c>
       <c r="F252" s="2" t="s">
-        <v>444</v>
+        <v>712</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -7302,8 +7467,11 @@
       <c r="B253" t="s">
         <v>253</v>
       </c>
+      <c r="C253" t="s">
+        <v>449</v>
+      </c>
       <c r="F253" s="2" t="s">
-        <v>444</v>
+        <v>713</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -7313,8 +7481,11 @@
       <c r="B254" t="s">
         <v>254</v>
       </c>
+      <c r="C254" t="s">
+        <v>446</v>
+      </c>
       <c r="F254" s="2" t="s">
-        <v>444</v>
+        <v>714</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -7324,19 +7495,25 @@
       <c r="B255" t="s">
         <v>255</v>
       </c>
+      <c r="C255" t="s">
+        <v>504</v>
+      </c>
       <c r="F255" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="42">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="63">
       <c r="A256">
         <v>1016</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
       </c>
+      <c r="C256" t="s">
+        <v>490</v>
+      </c>
       <c r="F256" s="2" t="s">
-        <v>444</v>
+        <v>716</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -7346,19 +7523,25 @@
       <c r="B257" t="s">
         <v>257</v>
       </c>
+      <c r="C257" t="s">
+        <v>490</v>
+      </c>
       <c r="F257" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="42">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="63">
       <c r="A258">
         <v>1027</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
       </c>
+      <c r="C258" t="s">
+        <v>490</v>
+      </c>
       <c r="F258" s="2" t="s">
-        <v>444</v>
+        <v>718</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -7368,8 +7551,11 @@
       <c r="B259" t="s">
         <v>259</v>
       </c>
+      <c r="C259" t="s">
+        <v>446</v>
+      </c>
       <c r="F259" s="2" t="s">
-        <v>444</v>
+        <v>719</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -7379,8 +7565,11 @@
       <c r="B260" t="s">
         <v>260</v>
       </c>
+      <c r="C260" t="s">
+        <v>446</v>
+      </c>
       <c r="F260" s="2" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -7390,8 +7579,11 @@
       <c r="B261" t="s">
         <v>261</v>
       </c>
+      <c r="C261" t="s">
+        <v>449</v>
+      </c>
       <c r="F261" s="2" t="s">
-        <v>444</v>
+        <v>721</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -7401,8 +7593,11 @@
       <c r="B262" t="s">
         <v>262</v>
       </c>
+      <c r="C262" t="s">
+        <v>446</v>
+      </c>
       <c r="F262" s="2" t="s">
-        <v>444</v>
+        <v>722</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -7412,8 +7607,11 @@
       <c r="B263" t="s">
         <v>263</v>
       </c>
+      <c r="C263" t="s">
+        <v>490</v>
+      </c>
       <c r="F263" s="2" t="s">
-        <v>444</v>
+        <v>723</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -7423,8 +7621,11 @@
       <c r="B264" t="s">
         <v>264</v>
       </c>
+      <c r="C264" t="s">
+        <v>446</v>
+      </c>
       <c r="F264" s="2" t="s">
-        <v>444</v>
+        <v>724</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -7434,8 +7635,11 @@
       <c r="B265" t="s">
         <v>265</v>
       </c>
+      <c r="C265" t="s">
+        <v>490</v>
+      </c>
       <c r="F265" s="2" t="s">
-        <v>444</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -7445,8 +7649,11 @@
       <c r="B266" t="s">
         <v>266</v>
       </c>
+      <c r="C266" t="s">
+        <v>449</v>
+      </c>
       <c r="F266" s="2" t="s">
-        <v>444</v>
+        <v>726</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -7456,8 +7663,11 @@
       <c r="B267" t="s">
         <v>267</v>
       </c>
+      <c r="C267" t="s">
+        <v>446</v>
+      </c>
       <c r="F267" s="2" t="s">
-        <v>444</v>
+        <v>727</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -7467,19 +7677,28 @@
       <c r="B268" t="s">
         <v>268</v>
       </c>
+      <c r="C268" t="s">
+        <v>449</v>
+      </c>
+      <c r="D268" t="s">
+        <v>455</v>
+      </c>
       <c r="F268" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="42">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="63">
       <c r="A269">
         <v>1167</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
       </c>
+      <c r="C269" t="s">
+        <v>449</v>
+      </c>
       <c r="F269" s="2" t="s">
-        <v>444</v>
+        <v>729</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -7489,8 +7708,11 @@
       <c r="B270" t="s">
         <v>270</v>
       </c>
+      <c r="C270" t="s">
+        <v>446</v>
+      </c>
       <c r="F270" s="2" t="s">
-        <v>444</v>
+        <v>730</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -7500,8 +7722,11 @@
       <c r="B271" t="s">
         <v>271</v>
       </c>
+      <c r="C271" t="s">
+        <v>446</v>
+      </c>
       <c r="F271" s="2" t="s">
-        <v>444</v>
+        <v>731</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -7511,8 +7736,11 @@
       <c r="B272" t="s">
         <v>272</v>
       </c>
+      <c r="C272" t="s">
+        <v>449</v>
+      </c>
       <c r="F272" s="2" t="s">
-        <v>444</v>
+        <v>732</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -7522,8 +7750,11 @@
       <c r="B273" t="s">
         <v>273</v>
       </c>
+      <c r="C273" t="s">
+        <v>449</v>
+      </c>
       <c r="F273" s="2" t="s">
-        <v>444</v>
+        <v>733</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -7533,8 +7764,11 @@
       <c r="B274" t="s">
         <v>274</v>
       </c>
+      <c r="C274" t="s">
+        <v>449</v>
+      </c>
       <c r="F274" s="2" t="s">
-        <v>444</v>
+        <v>734</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -7544,8 +7778,14 @@
       <c r="B275" t="s">
         <v>275</v>
       </c>
+      <c r="C275" t="s">
+        <v>504</v>
+      </c>
+      <c r="D275" t="s">
+        <v>449</v>
+      </c>
       <c r="F275" s="2" t="s">
-        <v>444</v>
+        <v>735</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -7555,8 +7795,11 @@
       <c r="B276" t="s">
         <v>276</v>
       </c>
+      <c r="C276" t="s">
+        <v>490</v>
+      </c>
       <c r="F276" s="2" t="s">
-        <v>444</v>
+        <v>736</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -7566,8 +7809,11 @@
       <c r="B277" t="s">
         <v>277</v>
       </c>
+      <c r="C277" t="s">
+        <v>446</v>
+      </c>
       <c r="F277" s="2" t="s">
-        <v>444</v>
+        <v>737</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -7577,8 +7823,11 @@
       <c r="B278" t="s">
         <v>278</v>
       </c>
+      <c r="C278" t="s">
+        <v>449</v>
+      </c>
       <c r="F278" s="2" t="s">
-        <v>444</v>
+        <v>738</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -7588,8 +7837,14 @@
       <c r="B279" t="s">
         <v>279</v>
       </c>
+      <c r="C279" t="s">
+        <v>504</v>
+      </c>
+      <c r="D279" t="s">
+        <v>449</v>
+      </c>
       <c r="F279" s="2" t="s">
-        <v>444</v>
+        <v>739</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -7599,8 +7854,11 @@
       <c r="B280" t="s">
         <v>280</v>
       </c>
+      <c r="C280" t="s">
+        <v>446</v>
+      </c>
       <c r="F280" s="2" t="s">
-        <v>444</v>
+        <v>740</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0951392-FA36-A440-8621-09EE52F54783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6B46A-7E6F-EC40-8B15-6C17C0106528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="-21100" windowWidth="28320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1240" yWindow="-21100" windowWidth="30040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Rust" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="763">
   <si>
     <t>Issue</t>
   </si>
@@ -2899,6 +2899,144 @@
   <si>
     <t>[Content]バグ: K8 クラスターが起動しない
 [Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]削除プロセスの再検討
+[Class]機能の改善，テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]より視覚的な進行状況表示を追加fluvio cluster start
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>インストール中の状況表示の改善，UIではない？</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]名前にアンダースコアや大文字を含むトピックを作成するとエラーが発生する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い問題のクローズ ジョブを追加
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Ci の安定性: ヘルスチェックの失敗
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クレートのバージョンを検証するジョブを追加
+[Class]CIテストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI の安定性: ゼロ コピー ステータスの処理
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リグレッション: トピック作成エラーの待機時間が長すぎる
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI/CD の再試行ロジックを削除する
+[Class]不要なCIテストの削除</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LLD 12 リンカーを使用
+[Class]ツールの使用</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fluvio-protocol-*木箱を一つに折りたたむ 
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クレートを掃除する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンシューマーは--formatHTML エスケープ出力をすべきではありません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HandshakeError は根本的なエラーを公開しません
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ツール: インライン チャートのデバッグを容易にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rust 2021 版に移行する
+[Class]言語のアップグレード</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ゲンゴ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クレートの公開ステップをリリースから独自のワークフローに移動
+[Class]リリース，CD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CI/CDでリリースで行う場合，Testsに分類？</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">バアウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluvio プロトコル: 新しいタイプのサポート
+[Class]機能の改善</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>_x0000_*_x0002__x0005_+</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]smartstream の名前を WASM モジュール関連 API の smart モジュールに変更
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インライン チャート ビルドの信頼性を高める
+[Class]CIテストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3866,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7868,8 +8006,14 @@
       <c r="B281" t="s">
         <v>281</v>
       </c>
+      <c r="C281" t="s">
+        <v>446</v>
+      </c>
+      <c r="D281" t="s">
+        <v>449</v>
+      </c>
       <c r="F281" s="2" t="s">
-        <v>444</v>
+        <v>741</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -7879,19 +8023,28 @@
       <c r="B282" t="s">
         <v>282</v>
       </c>
+      <c r="C282" t="s">
+        <v>446</v>
+      </c>
+      <c r="E282" t="s">
+        <v>743</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="42">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="63">
       <c r="A283">
         <v>1464</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
       </c>
+      <c r="C283" t="s">
+        <v>446</v>
+      </c>
       <c r="F283" s="2" t="s">
-        <v>444</v>
+        <v>744</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -7901,8 +8054,11 @@
       <c r="B284" t="s">
         <v>284</v>
       </c>
+      <c r="C284" t="s">
+        <v>449</v>
+      </c>
       <c r="F284" s="2" t="s">
-        <v>444</v>
+        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -7912,8 +8068,11 @@
       <c r="B285" t="s">
         <v>285</v>
       </c>
+      <c r="C285" t="s">
+        <v>449</v>
+      </c>
       <c r="F285" s="2" t="s">
-        <v>444</v>
+        <v>746</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -7923,8 +8082,11 @@
       <c r="B286" t="s">
         <v>286</v>
       </c>
+      <c r="C286" t="s">
+        <v>449</v>
+      </c>
       <c r="F286" s="2" t="s">
-        <v>444</v>
+        <v>747</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -7934,8 +8096,11 @@
       <c r="B287" t="s">
         <v>287</v>
       </c>
+      <c r="C287" t="s">
+        <v>449</v>
+      </c>
       <c r="F287" s="2" t="s">
-        <v>444</v>
+        <v>748</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -7945,8 +8110,11 @@
       <c r="B288" t="s">
         <v>288</v>
       </c>
+      <c r="C288" t="s">
+        <v>446</v>
+      </c>
       <c r="F288" s="2" t="s">
-        <v>444</v>
+        <v>749</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -7956,8 +8124,11 @@
       <c r="B289" t="s">
         <v>289</v>
       </c>
+      <c r="C289" t="s">
+        <v>449</v>
+      </c>
       <c r="F289" s="2" t="s">
-        <v>444</v>
+        <v>750</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -7967,8 +8138,11 @@
       <c r="B290" t="s">
         <v>290</v>
       </c>
+      <c r="C290" t="s">
+        <v>466</v>
+      </c>
       <c r="F290" s="2" t="s">
-        <v>444</v>
+        <v>751</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -7978,8 +8152,11 @@
       <c r="B291" t="s">
         <v>291</v>
       </c>
+      <c r="C291" t="s">
+        <v>446</v>
+      </c>
       <c r="F291" s="2" t="s">
-        <v>444</v>
+        <v>752</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -7989,8 +8166,11 @@
       <c r="B292" t="s">
         <v>292</v>
       </c>
+      <c r="C292" t="s">
+        <v>446</v>
+      </c>
       <c r="F292" s="2" t="s">
-        <v>444</v>
+        <v>753</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -8000,8 +8180,11 @@
       <c r="B293" t="s">
         <v>293</v>
       </c>
+      <c r="C293" t="s">
+        <v>446</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>444</v>
+        <v>754</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -8011,8 +8194,11 @@
       <c r="B294" t="s">
         <v>294</v>
       </c>
+      <c r="C294" t="s">
+        <v>446</v>
+      </c>
       <c r="F294" s="2" t="s">
-        <v>444</v>
+        <v>755</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -8022,8 +8208,11 @@
       <c r="B295" t="s">
         <v>295</v>
       </c>
+      <c r="C295" t="s">
+        <v>446</v>
+      </c>
       <c r="F295" s="2" t="s">
-        <v>444</v>
+        <v>756</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -8033,8 +8222,11 @@
       <c r="B296" t="s">
         <v>296</v>
       </c>
+      <c r="C296" t="s">
+        <v>466</v>
+      </c>
       <c r="F296" s="2" t="s">
-        <v>444</v>
+        <v>757</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -8044,8 +8236,17 @@
       <c r="B297" t="s">
         <v>297</v>
       </c>
+      <c r="C297" t="s">
+        <v>490</v>
+      </c>
+      <c r="D297" t="s">
+        <v>449</v>
+      </c>
+      <c r="E297" t="s">
+        <v>759</v>
+      </c>
       <c r="F297" s="2" t="s">
-        <v>444</v>
+        <v>758</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -8055,19 +8256,25 @@
       <c r="B298" t="s">
         <v>298</v>
       </c>
+      <c r="C298" t="s">
+        <v>446</v>
+      </c>
       <c r="F298" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="42">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="63">
       <c r="A299">
         <v>1858</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
       </c>
+      <c r="C299" t="s">
+        <v>446</v>
+      </c>
       <c r="F299" s="2" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -8077,8 +8284,11 @@
       <c r="B300" t="s">
         <v>300</v>
       </c>
+      <c r="C300" t="s">
+        <v>449</v>
+      </c>
       <c r="F300" s="2" t="s">
-        <v>444</v>
+        <v>762</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6B46A-7E6F-EC40-8B15-6C17C0106528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0419E54F-CEF4-AB41-9D6F-4B494D0B26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1240" yWindow="-21100" windowWidth="30040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="806">
   <si>
     <t>Issue</t>
   </si>
@@ -3037,6 +3037,224 @@
   <si>
     <t>[Content]インライン チャート ビルドの信頼性を高める
 [Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一括保存と復元
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Bors の実行中にエラーが発生しました
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tcs::Flags::DBGOPTIN が EADD でクリアされていることを確認してください
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GPR 構造体のサイズを確認します (Intel docs ambiguous)
+[Class]ドキュメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]xcomp_bv のビット設定を確認する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx-types/src/ssa.rs に Gpr::rflags のビットフラグを追加
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rust の libc クレートが musl で MAP_FIXED_NOREPLACE をエクスポートしない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Github アクションの依存関係をキャッシュする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content](Sub)Command 構造体を sev-types に入れる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx デバイスのアクセス許可
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ELF ヘッダーのサニティ チェックを改善する
+[Class]チェックの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GH アクションのセルフホストランナーのセットアップをコンテナー化する
+[Class]テストの改善</t>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「sev」クレートで sev_types::platform::Version を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]enarx-keep-sgx-shim .got* セクションを破棄しますか?
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]命令パターン一致定数
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]syscall および errno 定数
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]拡張 CPU 状態の保存/復元/クリア
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx shim ハンドラーで例外タイプをテストする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]enarx-keep-sgx に上流の libc mmap フラグを使用する
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]行方不明の糸くずを機能させるsev-show
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメントを追加
+[Class]ドキュメントの追加，テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RFLAGS の正しいデフォルト
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]crt0stack は [usize] かかります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nolibc の代わりに no_std 付きの libc を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]変更を「vmsyscall」にリファクタリングし、マスターにマージします
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]crt0stack GPF を調査する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SGX エントリ ポイント パラメータを測定する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SGX syscall ハンドラで rt_sig* 関数の正しい動作を実装
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メモリ クレートを使用するために既存の型を移植する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レイアウト構造体の重複排除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ゴブリンvsクリスマスエルフ
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]intel-types を x86_64 にマージ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最上位の "allow" lint 属性を sev-show から削除します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Keep と shim の間の Layout 構造体のより良い同期
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SGX shim のロギング機能を改善する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Intel SGX の現在のデバッグ オプションを理解する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトの「cargo make deny」タスクの上流
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]makefile を docs/ に移植して「cargo-make」を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「スパン」クレートの名前を変更します
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Enarx での「cargo make」の使用に関するドキュメントを追加
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nolibc クレートを削除する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サニタイズされた CPUID の結果を SGX レイアウト構造体に事前入力する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sev crate: RO および RW 操作構造体の分割構造体
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4004,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8298,8 +8516,11 @@
       <c r="B301" t="s">
         <v>301</v>
       </c>
+      <c r="C301" t="s">
+        <v>449</v>
+      </c>
       <c r="F301" s="2" t="s">
-        <v>444</v>
+        <v>763</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -8309,19 +8530,25 @@
       <c r="B302" t="s">
         <v>302</v>
       </c>
+      <c r="C302" t="s">
+        <v>449</v>
+      </c>
       <c r="F302" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="42">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="63">
       <c r="A303">
         <v>114</v>
       </c>
       <c r="B303" t="s">
         <v>303</v>
       </c>
+      <c r="C303" t="s">
+        <v>449</v>
+      </c>
       <c r="F303" s="2" t="s">
-        <v>444</v>
+        <v>765</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -8331,8 +8558,11 @@
       <c r="B304" t="s">
         <v>304</v>
       </c>
+      <c r="C304" t="s">
+        <v>460</v>
+      </c>
       <c r="F304" s="2" t="s">
-        <v>444</v>
+        <v>766</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -8342,8 +8572,11 @@
       <c r="B305" t="s">
         <v>305</v>
       </c>
+      <c r="C305" t="s">
+        <v>446</v>
+      </c>
       <c r="F305" s="2" t="s">
-        <v>444</v>
+        <v>767</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -8353,19 +8586,25 @@
       <c r="B306" t="s">
         <v>306</v>
       </c>
+      <c r="C306" t="s">
+        <v>446</v>
+      </c>
       <c r="F306" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="42">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="63">
       <c r="A307">
         <v>239</v>
       </c>
       <c r="B307" t="s">
         <v>307</v>
       </c>
+      <c r="C307" t="s">
+        <v>446</v>
+      </c>
       <c r="F307" s="2" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -8375,8 +8614,11 @@
       <c r="B308" t="s">
         <v>308</v>
       </c>
+      <c r="C308" t="s">
+        <v>449</v>
+      </c>
       <c r="F308" s="2" t="s">
-        <v>444</v>
+        <v>770</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -8386,8 +8628,11 @@
       <c r="B309" t="s">
         <v>309</v>
       </c>
+      <c r="C309" t="s">
+        <v>446</v>
+      </c>
       <c r="F309" s="2" t="s">
-        <v>444</v>
+        <v>771</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -8397,8 +8642,11 @@
       <c r="B310" t="s">
         <v>310</v>
       </c>
+      <c r="C310" t="s">
+        <v>446</v>
+      </c>
       <c r="F310" s="2" t="s">
-        <v>444</v>
+        <v>772</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -8408,8 +8656,11 @@
       <c r="B311" t="s">
         <v>311</v>
       </c>
+      <c r="C311" t="s">
+        <v>449</v>
+      </c>
       <c r="F311" s="2" t="s">
-        <v>444</v>
+        <v>773</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -8419,8 +8670,11 @@
       <c r="B312" t="s">
         <v>312</v>
       </c>
+      <c r="C312" t="s">
+        <v>449</v>
+      </c>
       <c r="F312" s="2" t="s">
-        <v>444</v>
+        <v>774</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -8430,8 +8684,11 @@
       <c r="B313" t="s">
         <v>313</v>
       </c>
+      <c r="C313" t="s">
+        <v>446</v>
+      </c>
       <c r="F313" s="2" t="s">
-        <v>444</v>
+        <v>775</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -8441,8 +8698,11 @@
       <c r="B314" t="s">
         <v>314</v>
       </c>
+      <c r="C314" t="s">
+        <v>446</v>
+      </c>
       <c r="F314" s="2" t="s">
-        <v>444</v>
+        <v>776</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -8452,8 +8712,11 @@
       <c r="B315" t="s">
         <v>315</v>
       </c>
+      <c r="C315" t="s">
+        <v>446</v>
+      </c>
       <c r="F315" s="2" t="s">
-        <v>444</v>
+        <v>777</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -8463,8 +8726,11 @@
       <c r="B316" t="s">
         <v>316</v>
       </c>
+      <c r="C316" t="s">
+        <v>446</v>
+      </c>
       <c r="F316" s="2" t="s">
-        <v>444</v>
+        <v>778</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -8474,8 +8740,11 @@
       <c r="B317" t="s">
         <v>317</v>
       </c>
+      <c r="C317" t="s">
+        <v>446</v>
+      </c>
       <c r="F317" s="2" t="s">
-        <v>444</v>
+        <v>779</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -8485,8 +8754,11 @@
       <c r="B318" t="s">
         <v>318</v>
       </c>
+      <c r="C318" t="s">
+        <v>449</v>
+      </c>
       <c r="F318" s="2" t="s">
-        <v>444</v>
+        <v>780</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -8496,8 +8768,11 @@
       <c r="B319" t="s">
         <v>319</v>
       </c>
+      <c r="C319" t="s">
+        <v>466</v>
+      </c>
       <c r="F319" s="2" t="s">
-        <v>444</v>
+        <v>781</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -8507,8 +8782,14 @@
       <c r="B320" t="s">
         <v>320</v>
       </c>
+      <c r="C320" t="s">
+        <v>460</v>
+      </c>
+      <c r="D320" t="s">
+        <v>449</v>
+      </c>
       <c r="F320" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -8518,8 +8799,11 @@
       <c r="B321" t="s">
         <v>321</v>
       </c>
+      <c r="C321" t="s">
+        <v>449</v>
+      </c>
       <c r="F321" s="2" t="s">
-        <v>444</v>
+        <v>782</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -8529,8 +8813,14 @@
       <c r="B322" t="s">
         <v>322</v>
       </c>
+      <c r="C322" t="s">
+        <v>460</v>
+      </c>
+      <c r="D322" t="s">
+        <v>449</v>
+      </c>
       <c r="F322" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">
@@ -8540,8 +8830,14 @@
       <c r="B323" t="s">
         <v>323</v>
       </c>
+      <c r="C323" t="s">
+        <v>460</v>
+      </c>
+      <c r="D323" t="s">
+        <v>449</v>
+      </c>
       <c r="F323" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -8551,8 +8847,14 @@
       <c r="B324" t="s">
         <v>324</v>
       </c>
+      <c r="C324" t="s">
+        <v>460</v>
+      </c>
+      <c r="D324" t="s">
+        <v>449</v>
+      </c>
       <c r="F324" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -8562,8 +8864,14 @@
       <c r="B325" t="s">
         <v>325</v>
       </c>
+      <c r="C325" t="s">
+        <v>460</v>
+      </c>
+      <c r="D325" t="s">
+        <v>449</v>
+      </c>
       <c r="F325" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -8573,8 +8881,14 @@
       <c r="B326" t="s">
         <v>326</v>
       </c>
+      <c r="C326" t="s">
+        <v>460</v>
+      </c>
+      <c r="D326" t="s">
+        <v>449</v>
+      </c>
       <c r="F326" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="42">
@@ -8584,8 +8898,11 @@
       <c r="B327" t="s">
         <v>327</v>
       </c>
+      <c r="C327" t="s">
+        <v>446</v>
+      </c>
       <c r="F327" s="2" t="s">
-        <v>444</v>
+        <v>784</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -8595,8 +8912,11 @@
       <c r="B328" t="s">
         <v>328</v>
       </c>
+      <c r="C328" t="s">
+        <v>446</v>
+      </c>
       <c r="F328" s="2" t="s">
-        <v>444</v>
+        <v>785</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -8606,8 +8926,11 @@
       <c r="B329" t="s">
         <v>329</v>
       </c>
+      <c r="C329" t="s">
+        <v>446</v>
+      </c>
       <c r="F329" s="2" t="s">
-        <v>444</v>
+        <v>786</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -8617,8 +8940,11 @@
       <c r="B330" t="s">
         <v>330</v>
       </c>
+      <c r="C330" t="s">
+        <v>446</v>
+      </c>
       <c r="F330" s="2" t="s">
-        <v>444</v>
+        <v>787</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -8628,8 +8954,14 @@
       <c r="B331" t="s">
         <v>331</v>
       </c>
+      <c r="C331" t="s">
+        <v>460</v>
+      </c>
+      <c r="D331" t="s">
+        <v>449</v>
+      </c>
       <c r="F331" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -8639,8 +8971,11 @@
       <c r="B332" t="s">
         <v>332</v>
       </c>
+      <c r="C332" t="s">
+        <v>446</v>
+      </c>
       <c r="F332" s="2" t="s">
-        <v>444</v>
+        <v>788</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -8650,8 +8985,11 @@
       <c r="B333" t="s">
         <v>333</v>
       </c>
+      <c r="C333" t="s">
+        <v>446</v>
+      </c>
       <c r="F333" s="2" t="s">
-        <v>444</v>
+        <v>789</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -8661,8 +8999,14 @@
       <c r="B334" t="s">
         <v>334</v>
       </c>
+      <c r="C334" t="s">
+        <v>460</v>
+      </c>
+      <c r="D334" t="s">
+        <v>449</v>
+      </c>
       <c r="F334" s="2" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -8672,8 +9016,11 @@
       <c r="B335" t="s">
         <v>335</v>
       </c>
+      <c r="C335" t="s">
+        <v>446</v>
+      </c>
       <c r="F335" s="2" t="s">
-        <v>444</v>
+        <v>790</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -8683,8 +9030,11 @@
       <c r="B336" t="s">
         <v>336</v>
       </c>
+      <c r="C336" t="s">
+        <v>446</v>
+      </c>
       <c r="F336" s="2" t="s">
-        <v>444</v>
+        <v>791</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -8694,8 +9044,11 @@
       <c r="B337" t="s">
         <v>337</v>
       </c>
+      <c r="C337" t="s">
+        <v>446</v>
+      </c>
       <c r="F337" s="2" t="s">
-        <v>444</v>
+        <v>792</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -8705,8 +9058,11 @@
       <c r="B338" t="s">
         <v>338</v>
       </c>
+      <c r="C338" t="s">
+        <v>466</v>
+      </c>
       <c r="F338" s="2" t="s">
-        <v>444</v>
+        <v>793</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -8716,8 +9072,11 @@
       <c r="B339" t="s">
         <v>339</v>
       </c>
+      <c r="C339" t="s">
+        <v>446</v>
+      </c>
       <c r="F339" s="2" t="s">
-        <v>444</v>
+        <v>794</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -8727,8 +9086,11 @@
       <c r="B340" t="s">
         <v>340</v>
       </c>
+      <c r="C340" t="s">
+        <v>446</v>
+      </c>
       <c r="F340" s="2" t="s">
-        <v>444</v>
+        <v>795</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -8738,8 +9100,11 @@
       <c r="B341" t="s">
         <v>341</v>
       </c>
+      <c r="C341" t="s">
+        <v>446</v>
+      </c>
       <c r="F341" s="2" t="s">
-        <v>444</v>
+        <v>796</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -8749,8 +9114,11 @@
       <c r="B342" t="s">
         <v>342</v>
       </c>
+      <c r="C342" t="s">
+        <v>446</v>
+      </c>
       <c r="F342" s="2" t="s">
-        <v>444</v>
+        <v>797</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -8760,8 +9128,11 @@
       <c r="B343" t="s">
         <v>343</v>
       </c>
+      <c r="C343" t="s">
+        <v>446</v>
+      </c>
       <c r="F343" s="2" t="s">
-        <v>444</v>
+        <v>798</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -8771,8 +9142,11 @@
       <c r="B344" t="s">
         <v>344</v>
       </c>
+      <c r="C344" t="s">
+        <v>446</v>
+      </c>
       <c r="F344" s="2" t="s">
-        <v>444</v>
+        <v>799</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -8782,8 +9156,11 @@
       <c r="B345" t="s">
         <v>345</v>
       </c>
+      <c r="C345" t="s">
+        <v>446</v>
+      </c>
       <c r="F345" s="2" t="s">
-        <v>444</v>
+        <v>800</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -8793,8 +9170,11 @@
       <c r="B346" t="s">
         <v>346</v>
       </c>
+      <c r="C346" t="s">
+        <v>446</v>
+      </c>
       <c r="F346" s="2" t="s">
-        <v>444</v>
+        <v>801</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -8804,8 +9184,11 @@
       <c r="B347" t="s">
         <v>347</v>
       </c>
+      <c r="C347" t="s">
+        <v>460</v>
+      </c>
       <c r="F347" s="2" t="s">
-        <v>444</v>
+        <v>802</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -8815,8 +9198,11 @@
       <c r="B348" t="s">
         <v>348</v>
       </c>
+      <c r="C348" t="s">
+        <v>446</v>
+      </c>
       <c r="F348" s="2" t="s">
-        <v>444</v>
+        <v>803</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -8826,8 +9212,11 @@
       <c r="B349" t="s">
         <v>349</v>
       </c>
+      <c r="C349" t="s">
+        <v>446</v>
+      </c>
       <c r="F349" s="2" t="s">
-        <v>444</v>
+        <v>804</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -8837,8 +9226,11 @@
       <c r="B350" t="s">
         <v>350</v>
       </c>
+      <c r="C350" t="s">
+        <v>446</v>
+      </c>
       <c r="F350" s="2" t="s">
-        <v>444</v>
+        <v>805</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0419E54F-CEF4-AB41-9D6F-4B494D0B26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9F322-B7F4-2D43-9B7A-B67F7308512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1240" yWindow="-21100" windowWidth="30040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="810">
   <si>
     <t>Issue</t>
   </si>
@@ -3255,6 +3255,26 @@
   <si>
     <t>[Content]sev crate: RO および RW 操作構造体の分割構造体
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx クレートを統合する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カーゴメイクテスト中にペイロードを実行する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]enarx-keep-sgx: バッファ内のファイル全体を読み取る代わりに、mmap() を使用します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]各 xcr0 フラグに関連付けられたテスト サイズ
+[Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4222,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F355" sqref="F355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9240,8 +9260,11 @@
       <c r="B351" t="s">
         <v>351</v>
       </c>
+      <c r="C351" t="s">
+        <v>446</v>
+      </c>
       <c r="F351" s="2" t="s">
-        <v>444</v>
+        <v>806</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -9251,19 +9274,25 @@
       <c r="B352" t="s">
         <v>352</v>
       </c>
+      <c r="C352" t="s">
+        <v>449</v>
+      </c>
       <c r="F352" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="42">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="63">
       <c r="A353">
         <v>529</v>
       </c>
       <c r="B353" t="s">
         <v>353</v>
       </c>
+      <c r="C353" t="s">
+        <v>446</v>
+      </c>
       <c r="F353" s="2" t="s">
-        <v>444</v>
+        <v>808</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -9273,8 +9302,11 @@
       <c r="B354" t="s">
         <v>354</v>
       </c>
+      <c r="C354" t="s">
+        <v>449</v>
+      </c>
       <c r="F354" s="2" t="s">
-        <v>444</v>
+        <v>809</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9F322-B7F4-2D43-9B7A-B67F7308512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A96AC87-9A66-BF40-B4BE-87F1ECF7CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1240" yWindow="-21100" windowWidth="30040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="816">
   <si>
     <t>Issue</t>
   </si>
@@ -3275,6 +3275,36 @@
   <si>
     <t>[Content]各 xcr0 フラグに関連付けられたテスト サイズ
 [Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]予期しない xcr0 フラグがないかテストします
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カーゴメイクテスト中にSEVペイロードを実行する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]さまざまなアドレス タイプを newtype として表現する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VirtualMachine::new を更新して、enarx-keep-sev で std::io::Error を返すようにします
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]musl-libc に対してビルドした場合の libunwind 警告
+[Class]ビルドの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]keep-runtime: /dev/null でのシステムコールを避ける
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4242,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F355" sqref="F355"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F365" sqref="F365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9316,8 +9346,11 @@
       <c r="B355" t="s">
         <v>355</v>
       </c>
+      <c r="C355" t="s">
+        <v>449</v>
+      </c>
       <c r="F355" s="2" t="s">
-        <v>444</v>
+        <v>810</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -9327,8 +9360,11 @@
       <c r="B356" t="s">
         <v>356</v>
       </c>
+      <c r="C356" t="s">
+        <v>449</v>
+      </c>
       <c r="F356" s="2" t="s">
-        <v>444</v>
+        <v>811</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -9338,19 +9374,25 @@
       <c r="B357" t="s">
         <v>357</v>
       </c>
+      <c r="C357" t="s">
+        <v>446</v>
+      </c>
       <c r="F357" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="42">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="63">
       <c r="A358">
         <v>556</v>
       </c>
       <c r="B358" t="s">
         <v>358</v>
       </c>
+      <c r="C358" t="s">
+        <v>446</v>
+      </c>
       <c r="F358" s="2" t="s">
-        <v>444</v>
+        <v>813</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -9360,8 +9402,11 @@
       <c r="B359" t="s">
         <v>359</v>
       </c>
+      <c r="C359" t="s">
+        <v>504</v>
+      </c>
       <c r="F359" s="2" t="s">
-        <v>444</v>
+        <v>814</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -9371,8 +9416,11 @@
       <c r="B360" t="s">
         <v>360</v>
       </c>
+      <c r="C360" t="s">
+        <v>446</v>
+      </c>
       <c r="F360" s="2" t="s">
-        <v>444</v>
+        <v>815</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">

--- a/satd_issue_dataset_Rust_tsuji.xlsx
+++ b/satd_issue_dataset_Rust_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A96AC87-9A66-BF40-B4BE-87F1ECF7CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086F061C-8819-B741-9E20-43B525B84012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1240" yWindow="-21100" windowWidth="30040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Rust" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="857">
   <si>
     <t>Issue</t>
   </si>
@@ -3304,6 +3304,222 @@
   </si>
   <si>
     <t>[Content]keep-runtime: /dev/null でのシステムコールを避ける
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]keep-runtime: /proc/self/cgroup でのシステムコールを避ける
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]keep-runtime: wasmtime での暗黙のスレッド作成
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]entry() の前に SGX shim に zerof を実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx-types のベンダー/作成者を簡素化
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]上流の kvm-ioctl の Result タイプを std::io::Error を使用するように変更するパッチを提案します
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rome ARK と ASK の正確性を検証する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]enarx-keep-sev/Cargo.toml から git リビジョンを削除
+[Class]Gitリポジトリの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testingクレートを他の SGX クレートにマージする
+[Class]テストの改善</t>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ワークスペースのルートを見つけるために組み込みの cargo-make 環境変数を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]struct Untrusted&lt;T&gt;(T)for shim &lt;-&gt; ホスト通信が必要です
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Register::from_raw() と Register::raw() を再評価する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI タスクを Makefile.toml に統合して、1 つのターゲットで正しく実行する
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]提案: とにかくクレートを使用し、追加のコンテキストをエラー メッセージに渡す
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]書き込み syscall テストは、非常に大きな書き込みで失敗するはずです
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストからの動的出力
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx::crypto::Signer を条件付きでコンパイルされたメソッドに変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]openssl クレートの使用を再考する
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx::ioctls モジュールを非公開にする
+[Class]機能の非公開</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sgx::attestation_types は no_std と互換性がありますか?
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ERESUME const を shim からエクスポートする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rust ナイトリー機能のホワイトリストを作成してテストする 
+[Class]機能の改善，テストの追加</t>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オフセットを使用するように SGX レイアウト構造体を変更
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホスト側のシステムコール検証とアドレス変換を実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]wasmldr:workload::run()とworkload::Errorを作り直しました
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]shim-sev アセンブラーの start.rs ブロックのクリーンアップ
+[Class]コードの改善，コードスタイル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]割り込みコードのコピーを解除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]KvmEncRegionを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testaso の重複排除
+[Class]重複した機能の削除，テスト？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Manager から CtlAcceptor の将来および関連コードを抽出する
+[Class]コードの抽出</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rust-protobufからへの protobuf 生成コードの移行を完了するprost
+[Class]コードの移行</t>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]既存のライフサイクル フック ロジックを修正する
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スモークテストフックのコードを削除
+[Class]不要なコードの削除，テスト？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スーパーバイザからコンポジットとeventsrvを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未使用の非推奨コードを削除して、開発を合理化する
+[Class]非推奨なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]core/hab-backlineStudio の正式な依存関係を作成する可能性を調査する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]std::error::Error の記述実装を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]shared.bash の冗長性を減らす
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PackageInstallから失敗可能なメソッドを削除します 
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]env_logger から log4rs への移行を容易にする
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクト全体の Protobuf 生成の簡素化を完了する
 [Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -4272,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F365" sqref="F365"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F401" sqref="F401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9430,8 +9646,11 @@
       <c r="B361" t="s">
         <v>361</v>
       </c>
+      <c r="C361" t="s">
+        <v>446</v>
+      </c>
       <c r="F361" s="2" t="s">
-        <v>444</v>
+        <v>816</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -9441,8 +9660,11 @@
       <c r="B362" t="s">
         <v>362</v>
       </c>
+      <c r="C362" t="s">
+        <v>446</v>
+      </c>
       <c r="F362" s="2" t="s">
-        <v>444</v>
+        <v>817</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -9452,8 +9674,11 @@
       <c r="B363" t="s">
         <v>363</v>
       </c>
+      <c r="C363" t="s">
+        <v>446</v>
+      </c>
       <c r="F363" s="2" t="s">
-        <v>444</v>
+        <v>818</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -9463,19 +9688,25 @@
       <c r="B364" t="s">
         <v>364</v>
       </c>
+      <c r="C364" t="s">
+        <v>446</v>
+      </c>
       <c r="F364" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="42">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="63">
       <c r="A365">
         <v>577</v>
       </c>
       <c r="B365" t="s">
         <v>365</v>
       </c>
+      <c r="C365" t="s">
+        <v>446</v>
+      </c>
       <c r="F365" s="2" t="s">
-        <v>444</v>
+        <v>820</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -9485,8 +9716,11 @@
       <c r="B366" t="s">
         <v>366</v>
       </c>
+      <c r="C366" t="s">
+        <v>446</v>
+      </c>
       <c r="F366" s="2" t="s">
-        <v>444</v>
+        <v>821</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -9496,8 +9730,11 @@
       <c r="B367" t="s">
         <v>367</v>
       </c>
+      <c r="C367" t="s">
+        <v>490</v>
+      </c>
       <c r="F367" s="2" t="s">
-        <v>444</v>
+        <v>822</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -9507,19 +9744,25 @@
       <c r="B368" t="s">
         <v>368</v>
       </c>
+      <c r="C368" t="s">
+        <v>449</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="42">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="63">
       <c r="A369">
         <v>599</v>
       </c>
       <c r="B369" t="s">
         <v>369</v>
       </c>
+      <c r="C369" t="s">
+        <v>446</v>
+      </c>
       <c r="F369" s="2" t="s">
-        <v>444</v>
+        <v>824</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -9529,8 +9772,11 @@
       <c r="B370" t="s">
         <v>370</v>
       </c>
+      <c r="C370" t="s">
+        <v>446</v>
+      </c>
       <c r="F370" s="2" t="s">
-        <v>444</v>
+        <v>825</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -9540,8 +9786,11 @@
       <c r="B371" t="s">
         <v>371</v>
       </c>
+      <c r="C371" t="s">
+        <v>446</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>444</v>
+        <v>826</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -9551,19 +9800,25 @@
       <c r="B372" t="s">
         <v>372</v>
       </c>
+      <c r="C372" t="s">
+        <v>449</v>
+      </c>
       <c r="F372" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="42">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="63">
       <c r="A373">
         <v>726</v>
       </c>
       <c r="B373" t="s">
         <v>373</v>
       </c>
+      <c r="C373" t="s">
+        <v>446</v>
+      </c>
       <c r="F373" s="2" t="s">
-        <v>444</v>
+        <v>828</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -9573,8 +9828,11 @@
       <c r="B374" t="s">
         <v>374</v>
       </c>
+      <c r="C374" t="s">
+        <v>449</v>
+      </c>
       <c r="F374" s="2" t="s">
-        <v>444</v>
+        <v>829</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -9584,8 +9842,11 @@
       <c r="B375" t="s">
         <v>375</v>
       </c>
+      <c r="C375" t="s">
+        <v>449</v>
+      </c>
       <c r="F375" s="2" t="s">
-        <v>444</v>
+        <v>830</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -9595,8 +9856,11 @@
       <c r="B376" t="s">
         <v>376</v>
       </c>
+      <c r="C376" t="s">
+        <v>446</v>
+      </c>
       <c r="F376" s="2" t="s">
-        <v>444</v>
+        <v>831</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -9606,8 +9870,11 @@
       <c r="B377" t="s">
         <v>377</v>
       </c>
+      <c r="C377" t="s">
+        <v>466</v>
+      </c>
       <c r="F377" s="2" t="s">
-        <v>444</v>
+        <v>832</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -9617,8 +9884,11 @@
       <c r="B378" t="s">
         <v>378</v>
       </c>
+      <c r="C378" t="s">
+        <v>446</v>
+      </c>
       <c r="F378" s="2" t="s">
-        <v>444</v>
+        <v>833</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -9628,8 +9898,11 @@
       <c r="B379" t="s">
         <v>379</v>
       </c>
+      <c r="C379" t="s">
+        <v>466</v>
+      </c>
       <c r="F379" s="2" t="s">
-        <v>444</v>
+        <v>834</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -9639,8 +9912,11 @@
       <c r="B380" t="s">
         <v>380</v>
       </c>
+      <c r="C380" t="s">
+        <v>446</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>444</v>
+        <v>835</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -9650,8 +9926,14 @@
       <c r="B381" t="s">
         <v>381</v>
       </c>
+      <c r="C381" t="s">
+        <v>446</v>
+      </c>
+      <c r="D381" t="s">
+        <v>449</v>
+      </c>
       <c r="F381" s="2" t="s">
-        <v>444</v>
+        <v>836</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -9661,8 +9943,11 @@
       <c r="B382" t="s">
         <v>382</v>
       </c>
+      <c r="C382" t="s">
+        <v>446</v>
+      </c>
       <c r="F382" s="2" t="s">
-        <v>444</v>
+        <v>837</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42">
@@ -9672,8 +9957,11 @@
       <c r="B383" t="s">
         <v>383</v>
       </c>
+      <c r="C383" t="s">
+        <v>446</v>
+      </c>
       <c r="F383" s="2" t="s">
-        <v>444</v>
+        <v>838</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="42">
@@ -9683,8 +9971,11 @@
       <c r="B384" t="s">
         <v>384</v>
       </c>
+      <c r="C384" t="s">
+        <v>446</v>
+      </c>
       <c r="F384" s="2" t="s">
-        <v>444</v>
+        <v>839</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="42">
@@ -9694,8 +9985,14 @@
       <c r="B385" t="s">
         <v>385</v>
       </c>
+      <c r="C385" t="s">
+        <v>446</v>
+      </c>
+      <c r="D385" t="s">
+        <v>841</v>
+      </c>
       <c r="F385" s="2" t="s">
-        <v>444</v>
+        <v>840</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="42">
@@ -9705,8 +10002,11 @@
       <c r="B386" t="s">
         <v>386</v>
       </c>
+      <c r="C386" t="s">
+        <v>446</v>
+      </c>
       <c r="F386" s="2" t="s">
-        <v>444</v>
+        <v>842</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="42">
@@ -9716,8 +10016,11 @@
       <c r="B387" t="s">
         <v>387</v>
       </c>
+      <c r="C387" t="s">
+        <v>446</v>
+      </c>
       <c r="F387" s="2" t="s">
-        <v>444</v>
+        <v>843</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="42">
@@ -9727,8 +10030,14 @@
       <c r="B388" t="s">
         <v>388</v>
       </c>
+      <c r="C388" t="s">
+        <v>446</v>
+      </c>
+      <c r="D388" t="s">
+        <v>449</v>
+      </c>
       <c r="F388" s="2" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="42">
@@ -9738,8 +10047,11 @@
       <c r="B389" t="s">
         <v>389</v>
       </c>
+      <c r="C389" t="s">
+        <v>446</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>444</v>
+        <v>845</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="42">
@@ -9749,8 +10061,11 @@
       <c r="B390" t="s">
         <v>390</v>
       </c>
+      <c r="C390" t="s">
+        <v>446</v>
+      </c>
       <c r="F390" s="2" t="s">
-        <v>444</v>
+        <v>846</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="42">
@@ -9760,8 +10075,11 @@
       <c r="B391" t="s">
         <v>391</v>
       </c>
+      <c r="C391" t="s">
+        <v>446</v>
+      </c>
       <c r="F391" s="2" t="s">
-        <v>444</v>
+        <v>847</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42">
@@ -9771,8 +10089,14 @@
       <c r="B392" t="s">
         <v>392</v>
       </c>
+      <c r="C392" t="s">
+        <v>446</v>
+      </c>
+      <c r="D392" t="s">
+        <v>449</v>
+      </c>
       <c r="F392" s="2" t="s">
-        <v>444</v>
+        <v>848</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="42">
@@ -9782,8 +10106,11 @@
       <c r="B393" t="s">
         <v>393</v>
       </c>
+      <c r="C393" t="s">
+        <v>446</v>
+      </c>
       <c r="F393" s="2" t="s">
-        <v>444</v>
+        <v>849</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="42">
@@ -9793,8 +10120,11 @@
       <c r="B394" t="s">
         <v>394</v>
       </c>
+      <c r="C394" t="s">
+        <v>446</v>
+      </c>
       <c r="F394" s="2" t="s">
-        <v>444</v>
+        <v>850</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="42">
@@ -9804,8 +10134,11 @@
       <c r="B395" t="s">
         <v>395</v>
       </c>
+      <c r="C395" t="s">
+        <v>504</v>
+      </c>
       <c r="F395" s="2" t="s">
-        <v>444</v>
+        <v>851</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="42">
@@ -9815,8 +10148,11 @@
       <c r="B396" t="s">
         <v>396</v>
       </c>
+      <c r="C396" t="s">
+        <v>446</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>444</v>
+        <v>852</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="42">
@@ -9826,8 +10162,11 @@
       <c r="B397" t="s">
         <v>397</v>
       </c>
+      <c r="C397" t="s">
+        <v>446</v>
+      </c>
       <c r="F397" s="2" t="s">
-        <v>444</v>
+        <v>853</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="42">
@@ -9837,8 +10176,11 @@
       <c r="B398" t="s">
         <v>398</v>
       </c>
+      <c r="C398" t="s">
+        <v>446</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>444</v>
+        <v>854</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="42">
@@ -9848,8 +10190,11 @@
       <c r="B399" t="s">
         <v>399</v>
       </c>
+      <c r="C399" t="s">
+        <v>466</v>
+      </c>
       <c r="F399" s="2" t="s">
-        <v>444</v>
+        <v>855</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42">
@@ -9859,8 +10204,11 @@
       <c r="B400" t="s">
         <v>400</v>
       </c>
+      <c r="C400" t="s">
+        <v>446</v>
+      </c>
       <c r="F400" s="2" t="s">
-        <v>444</v>
+        <v>856</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="42">
